--- a/file/seongdong-gu.xlsx
+++ b/file/seongdong-gu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7DB386E-5594-4352-8768-260D09D70511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763DE224-F5F0-422C-A753-E1853995B990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAC92FAD-1A61-48C3-B47D-B4D6FEA964EB}"/>
   </bookViews>
@@ -25,492 +25,243 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="165">
-  <si>
-    <t>1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t>현대</t>
   </si>
   <si>
-    <t>324</t>
-  </si>
-  <si>
     <t>성수우방2차</t>
   </si>
   <si>
-    <t>332</t>
-  </si>
-  <si>
     <t>신동아</t>
   </si>
   <si>
-    <t>547</t>
-  </si>
-  <si>
     <t>두산</t>
   </si>
   <si>
-    <t>548</t>
-  </si>
-  <si>
     <t>왕십리삼성</t>
   </si>
   <si>
-    <t>549</t>
-  </si>
-  <si>
     <t>세림</t>
   </si>
   <si>
-    <t>552</t>
-  </si>
-  <si>
     <t>성수동아그린</t>
   </si>
   <si>
-    <t>553</t>
-  </si>
-  <si>
     <t>동아</t>
   </si>
   <si>
-    <t>556</t>
-  </si>
-  <si>
     <t>쌍용</t>
   </si>
   <si>
-    <t>559</t>
-  </si>
-  <si>
     <t>청구강변(101동)</t>
   </si>
   <si>
-    <t>560</t>
-  </si>
-  <si>
     <t>한진타운</t>
   </si>
   <si>
-    <t>561</t>
-  </si>
-  <si>
     <t>성수현대그린</t>
   </si>
   <si>
-    <t>562</t>
-  </si>
-  <si>
     <t>옥수극동</t>
   </si>
   <si>
-    <t>566</t>
-  </si>
-  <si>
     <t>한남하이츠</t>
   </si>
   <si>
-    <t>567</t>
-  </si>
-  <si>
     <t>옥수현대</t>
   </si>
   <si>
-    <t>568</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
     <t>대림1차</t>
   </si>
   <si>
-    <t>571</t>
-  </si>
-  <si>
     <t>대림2차</t>
   </si>
   <si>
-    <t>572</t>
-  </si>
-  <si>
     <t>금호현대</t>
   </si>
   <si>
-    <t>574</t>
-  </si>
-  <si>
     <t>한신무학</t>
   </si>
   <si>
-    <t>575</t>
-  </si>
-  <si>
     <t>서울숲삼부</t>
   </si>
   <si>
-    <t>838</t>
-  </si>
-  <si>
     <t>무학현대</t>
   </si>
   <si>
-    <t>877</t>
-  </si>
-  <si>
     <t>청계현대</t>
   </si>
   <si>
-    <t>1173</t>
-  </si>
-  <si>
     <t>하이츠</t>
   </si>
   <si>
-    <t>1175</t>
-  </si>
-  <si>
     <t>성수대우2차</t>
   </si>
   <si>
-    <t>1177</t>
-  </si>
-  <si>
     <t>한강한신</t>
   </si>
   <si>
-    <t>1178</t>
-  </si>
-  <si>
     <t>송정건영</t>
   </si>
   <si>
-    <t>2976</t>
-  </si>
-  <si>
     <t>대림강변타운</t>
   </si>
   <si>
-    <t>3417</t>
-  </si>
-  <si>
     <t>금호삼성래미안</t>
   </si>
   <si>
-    <t>3418</t>
-  </si>
-  <si>
     <t>강변건영</t>
   </si>
   <si>
-    <t>3530</t>
-  </si>
-  <si>
     <t>서울숲대림</t>
   </si>
   <si>
-    <t>7993</t>
-  </si>
-  <si>
     <t>서울숲리버그린동아</t>
   </si>
   <si>
-    <t>8103</t>
-  </si>
-  <si>
     <t>성수아이파크</t>
   </si>
   <si>
-    <t>8104</t>
-  </si>
-  <si>
     <t>성수롯데캐슬파크</t>
   </si>
   <si>
-    <t>8562</t>
-  </si>
-  <si>
     <t>행당브라운스톤</t>
   </si>
   <si>
-    <t>8578</t>
-  </si>
-  <si>
     <t>중앙하이츠빌</t>
   </si>
   <si>
-    <t>8593</t>
-  </si>
-  <si>
     <t>옥수강변풍림아이원</t>
   </si>
   <si>
-    <t>8828</t>
-  </si>
-  <si>
     <t>마장신성미소지움</t>
   </si>
   <si>
-    <t>8854</t>
-  </si>
-  <si>
-    <t>9124</t>
-  </si>
-  <si>
     <t>왕십리금호어울림</t>
   </si>
   <si>
-    <t>9168</t>
-  </si>
-  <si>
     <t>왕십리풍림아이원</t>
   </si>
   <si>
-    <t>9213</t>
-  </si>
-  <si>
     <t>롯데</t>
   </si>
   <si>
-    <t>10316</t>
-  </si>
-  <si>
     <t>금호1차푸르지오</t>
   </si>
   <si>
-    <t>10485</t>
-  </si>
-  <si>
     <t>한남더리버</t>
   </si>
   <si>
-    <t>10647</t>
-  </si>
-  <si>
     <t>금호한신휴플러스</t>
   </si>
   <si>
-    <t>10898</t>
-  </si>
-  <si>
     <t>대성유니드</t>
   </si>
   <si>
-    <t>12298</t>
-  </si>
-  <si>
     <t>신한넥스텔</t>
   </si>
   <si>
-    <t>12299</t>
-  </si>
-  <si>
     <t>성수아카데미타워(라성아카데미타워)</t>
   </si>
   <si>
-    <t>12535</t>
-  </si>
-  <si>
     <t>ESA리버하우스</t>
   </si>
   <si>
-    <t>12536</t>
-  </si>
-  <si>
     <t>성원상떼뷰</t>
   </si>
   <si>
-    <t>12538</t>
-  </si>
-  <si>
     <t>성동샤르망</t>
   </si>
   <si>
-    <t>14019</t>
-  </si>
-  <si>
     <t>금호브라운스톤1차</t>
   </si>
   <si>
-    <t>17301</t>
-  </si>
-  <si>
     <t>노블리안</t>
   </si>
   <si>
-    <t>17490</t>
-  </si>
-  <si>
     <t>왕십리역이스타빌</t>
   </si>
   <si>
-    <t>18541</t>
-  </si>
-  <si>
     <t>서울숲푸르지오1차</t>
   </si>
   <si>
-    <t>22725</t>
-  </si>
-  <si>
     <t>성동삼성쉐르빌(주상복합)</t>
   </si>
   <si>
-    <t>27424</t>
-  </si>
-  <si>
     <t>서울숲힐스테이트</t>
   </si>
   <si>
-    <t>27575</t>
-  </si>
-  <si>
     <t>래미안하이리버</t>
   </si>
   <si>
-    <t>27620</t>
-  </si>
-  <si>
     <t>갤러리아포레(주상복합)</t>
   </si>
   <si>
-    <t>100595</t>
-  </si>
-  <si>
     <t>금호자이2차</t>
   </si>
   <si>
-    <t>100692</t>
-  </si>
-  <si>
     <t>래미안옥수리버젠</t>
   </si>
   <si>
-    <t>101322</t>
-  </si>
-  <si>
     <t>서울숲푸르지오2차</t>
   </si>
   <si>
-    <t>103112</t>
-  </si>
-  <si>
     <t>서울숲더샵(주상복합)</t>
   </si>
   <si>
-    <t>103136</t>
-  </si>
-  <si>
     <t>옥수어울림</t>
   </si>
   <si>
-    <t>104190</t>
-  </si>
-  <si>
     <t>텐즈힐2</t>
   </si>
   <si>
-    <t>107240</t>
-  </si>
-  <si>
     <t>텐즈힐1</t>
   </si>
   <si>
-    <t>107508</t>
-  </si>
-  <si>
     <t>왕십리KCC스위첸</t>
   </si>
   <si>
-    <t>108405</t>
-  </si>
-  <si>
     <t>트리마제</t>
   </si>
   <si>
-    <t>108858</t>
-  </si>
-  <si>
     <t>장한평역서희스타힐스리버파크</t>
   </si>
   <si>
-    <t>109910</t>
-  </si>
-  <si>
     <t>센트라스</t>
   </si>
   <si>
-    <t>109934</t>
-  </si>
-  <si>
-    <t>110226</t>
-  </si>
-  <si>
     <t>신금호파크자이</t>
   </si>
   <si>
-    <t>110936</t>
-  </si>
-  <si>
     <t>e편한세상금호파크힐스</t>
   </si>
   <si>
-    <t>110938</t>
-  </si>
-  <si>
     <t>e편한세상옥수파크힐스</t>
   </si>
   <si>
-    <t>110939</t>
-  </si>
-  <si>
     <t>힐스테이트서울숲리버</t>
   </si>
   <si>
-    <t>111002</t>
-  </si>
-  <si>
     <t>왕십리자이</t>
   </si>
   <si>
-    <t>111258</t>
-  </si>
-  <si>
     <t>서울숲리버뷰자이</t>
   </si>
   <si>
-    <t>118738</t>
-  </si>
-  <si>
     <t>아크로서울포레스트(주상복합)</t>
   </si>
   <si>
-    <t>129510</t>
-  </si>
-  <si>
     <t>왕십리렉스프리미엄</t>
   </si>
   <si>
-    <t>138174</t>
-  </si>
-  <si>
     <t>지웰홈스왕십리(도시형)</t>
   </si>
   <si>
-    <t>171418</t>
-  </si>
-  <si>
     <t>서울숲아이파크리버포레1차</t>
   </si>
   <si>
-    <t>174098</t>
-  </si>
-  <si>
     <t>청계리버뷰자이</t>
-  </si>
-  <si>
-    <t>176297</t>
   </si>
   <si>
     <t>청계SK뷰(주상복합)</t>
@@ -521,6 +272,10 @@
   </si>
   <si>
     <t>아파트명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극동그린</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,8 +320,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -883,688 +641,697 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA889EB-84E6-4871-A46E-AE0AAC68F2E6}">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>324</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>332</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>547</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>548</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>549</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>552</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>553</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>556</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>559</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>560</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>561</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>562</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>566</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>567</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>568</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>569</v>
+      </c>
+      <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>571</v>
+      </c>
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>572</v>
+      </c>
+      <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>574</v>
+      </c>
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>575</v>
+      </c>
+      <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>583</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>838</v>
+      </c>
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>877</v>
+      </c>
+      <c r="B25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>1173</v>
+      </c>
+      <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>1175</v>
+      </c>
+      <c r="B27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>1177</v>
+      </c>
+      <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>1178</v>
+      </c>
+      <c r="B29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>2976</v>
+      </c>
+      <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>3417</v>
+      </c>
+      <c r="B31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>3418</v>
+      </c>
+      <c r="B32" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>3530</v>
+      </c>
+      <c r="B33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>7993</v>
+      </c>
+      <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>8103</v>
+      </c>
+      <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>8104</v>
+      </c>
+      <c r="B36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>8562</v>
+      </c>
+      <c r="B37" t="s">
         <v>33</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>8578</v>
+      </c>
+      <c r="B38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>8593</v>
+      </c>
+      <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>8828</v>
+      </c>
+      <c r="B40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>8854</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>9124</v>
+      </c>
+      <c r="B42" t="s">
         <v>37</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>9168</v>
+      </c>
+      <c r="B43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>9213</v>
+      </c>
+      <c r="B44" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>10316</v>
+      </c>
+      <c r="B45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>10485</v>
+      </c>
+      <c r="B46" t="s">
         <v>41</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>10647</v>
+      </c>
+      <c r="B47" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>10898</v>
+      </c>
+      <c r="B48" t="s">
         <v>43</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>12298</v>
+      </c>
+      <c r="B49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>12299</v>
+      </c>
+      <c r="B50" t="s">
         <v>45</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>12535</v>
+      </c>
+      <c r="B51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>12536</v>
+      </c>
+      <c r="B52" t="s">
         <v>47</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>12538</v>
+      </c>
+      <c r="B53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>14019</v>
+      </c>
+      <c r="B54" t="s">
         <v>49</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>17301</v>
+      </c>
+      <c r="B55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>17490</v>
+      </c>
+      <c r="B56" t="s">
         <v>51</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>18541</v>
+      </c>
+      <c r="B57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>22725</v>
+      </c>
+      <c r="B58" t="s">
         <v>53</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>27424</v>
+      </c>
+      <c r="B59" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>27575</v>
+      </c>
+      <c r="B60" t="s">
         <v>55</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>27620</v>
+      </c>
+      <c r="B61" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>100595</v>
+      </c>
+      <c r="B62" t="s">
         <v>57</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>100692</v>
+      </c>
+      <c r="B63" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>101322</v>
+      </c>
+      <c r="B64" t="s">
         <v>59</v>
       </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>103112</v>
+      </c>
+      <c r="B65" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>103136</v>
+      </c>
+      <c r="B66" t="s">
         <v>61</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>104190</v>
+      </c>
+      <c r="B67" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>107240</v>
+      </c>
+      <c r="B68" t="s">
         <v>63</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>107508</v>
+      </c>
+      <c r="B69" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>108405</v>
+      </c>
+      <c r="B70" t="s">
         <v>65</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>108858</v>
+      </c>
+      <c r="B71" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>109910</v>
+      </c>
+      <c r="B72" t="s">
         <v>67</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>109934</v>
+      </c>
+      <c r="B73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>110226</v>
+      </c>
+      <c r="B74" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>110936</v>
+      </c>
+      <c r="B75" t="s">
         <v>69</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>110938</v>
+      </c>
+      <c r="B76" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>110939</v>
+      </c>
+      <c r="B77" t="s">
         <v>71</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>111002</v>
+      </c>
+      <c r="B78" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>111258</v>
+      </c>
+      <c r="B79" t="s">
         <v>73</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>118738</v>
+      </c>
+      <c r="B80" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>129510</v>
+      </c>
+      <c r="B81" t="s">
         <v>75</v>
       </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>138174</v>
+      </c>
+      <c r="B82" t="s">
         <v>76</v>
       </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>171418</v>
+      </c>
+      <c r="B83" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>174098</v>
+      </c>
+      <c r="B84" t="s">
         <v>78</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>176297</v>
+      </c>
+      <c r="B85" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>108</v>
-      </c>
-      <c r="B57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>110</v>
-      </c>
-      <c r="B58" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>116</v>
-      </c>
-      <c r="B61" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>118</v>
-      </c>
-      <c r="B62" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>120</v>
-      </c>
-      <c r="B63" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>126</v>
-      </c>
-      <c r="B66" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>128</v>
-      </c>
-      <c r="B67" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>130</v>
-      </c>
-      <c r="B68" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>134</v>
-      </c>
-      <c r="B70" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>136</v>
-      </c>
-      <c r="B71" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>138</v>
-      </c>
-      <c r="B72" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>139</v>
-      </c>
-      <c r="B73" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>141</v>
-      </c>
-      <c r="B74" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>143</v>
-      </c>
-      <c r="B75" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>145</v>
-      </c>
-      <c r="B76" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>147</v>
-      </c>
-      <c r="B77" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>149</v>
-      </c>
-      <c r="B78" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>151</v>
-      </c>
-      <c r="B79" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>153</v>
-      </c>
-      <c r="B80" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>155</v>
-      </c>
-      <c r="B81" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>157</v>
-      </c>
-      <c r="B82" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>159</v>
-      </c>
-      <c r="B83" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>161</v>
-      </c>
-      <c r="B84" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/file/seongdong-gu.xlsx
+++ b/file/seongdong-gu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763DE224-F5F0-422C-A753-E1853995B990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAD129D-1D7E-4C62-A644-90FC0B2FE7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAC92FAD-1A61-48C3-B47D-B4D6FEA964EB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>현대</t>
   </si>
@@ -276,6 +276,10 @@
   </si>
   <si>
     <t>극동그린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금호베스트빌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,11 +324,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -641,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA889EB-84E6-4871-A46E-AE0AAC68F2E6}">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
@@ -658,7 +659,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -666,7 +667,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>324</v>
       </c>
       <c r="B3" t="s">
@@ -674,7 +675,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>332</v>
       </c>
       <c r="B4" t="s">
@@ -682,7 +683,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>547</v>
       </c>
       <c r="B5" t="s">
@@ -690,7 +691,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>548</v>
       </c>
       <c r="B6" t="s">
@@ -698,7 +699,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>549</v>
       </c>
       <c r="B7" t="s">
@@ -706,7 +707,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>552</v>
       </c>
       <c r="B8" t="s">
@@ -714,7 +715,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>553</v>
       </c>
       <c r="B9" t="s">
@@ -722,7 +723,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>556</v>
       </c>
       <c r="B10" t="s">
@@ -730,7 +731,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>559</v>
       </c>
       <c r="B11" t="s">
@@ -738,7 +739,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>560</v>
       </c>
       <c r="B12" t="s">
@@ -746,7 +747,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>561</v>
       </c>
       <c r="B13" t="s">
@@ -754,7 +755,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>562</v>
       </c>
       <c r="B14" t="s">
@@ -762,7 +763,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>566</v>
       </c>
       <c r="B15" t="s">
@@ -770,7 +771,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>567</v>
       </c>
       <c r="B16" t="s">
@@ -778,7 +779,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>568</v>
       </c>
       <c r="B17" t="s">
@@ -786,7 +787,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>569</v>
       </c>
       <c r="B18" t="s">
@@ -794,7 +795,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>571</v>
       </c>
       <c r="B19" t="s">
@@ -802,7 +803,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>572</v>
       </c>
       <c r="B20" t="s">
@@ -810,7 +811,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>574</v>
       </c>
       <c r="B21" t="s">
@@ -818,7 +819,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>575</v>
       </c>
       <c r="B22" t="s">
@@ -834,7 +835,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>838</v>
       </c>
       <c r="B24" t="s">
@@ -842,7 +843,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>877</v>
       </c>
       <c r="B25" t="s">
@@ -850,7 +851,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>1173</v>
       </c>
       <c r="B26" t="s">
@@ -858,7 +859,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>1175</v>
       </c>
       <c r="B27" t="s">
@@ -866,7 +867,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>1177</v>
       </c>
       <c r="B28" t="s">
@@ -874,7 +875,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>1178</v>
       </c>
       <c r="B29" t="s">
@@ -882,7 +883,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>2976</v>
       </c>
       <c r="B30" t="s">
@@ -890,7 +891,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>3417</v>
       </c>
       <c r="B31" t="s">
@@ -898,7 +899,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>3418</v>
       </c>
       <c r="B32" t="s">
@@ -906,426 +907,434 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33">
+        <v>3532</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>3530</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>7993</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>8103</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>8104</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>8562</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>8578</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>8593</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>8828</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>8854</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>9124</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>9168</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>9213</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>10316</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>10485</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>10647</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>10898</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>12298</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>12299</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>12535</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>12536</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>12538</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>14019</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>17301</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>17490</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>18541</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>22725</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>27424</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>27575</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>27620</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>100595</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>100692</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>101322</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>103112</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>103136</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>104190</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>107240</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>107508</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>108405</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>108858</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>109910</v>
-      </c>
-      <c r="B72" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>109934</v>
       </c>
       <c r="B73" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+      <c r="A74">
+        <v>109934</v>
+      </c>
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>110226</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>110936</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>110938</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>110939</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>111002</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>111258</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>118738</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>129510</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>138174</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>171418</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>174098</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>176297</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>79</v>
       </c>
     </row>

--- a/file/seongdong-gu.xlsx
+++ b/file/seongdong-gu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAD129D-1D7E-4C62-A644-90FC0B2FE7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059CFD51-3B9A-4BCD-B80F-38437310665E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAC92FAD-1A61-48C3-B47D-B4D6FEA964EB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>현대</t>
   </si>
@@ -280,6 +280,10 @@
   </si>
   <si>
     <t>금호베스트빌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한진해모로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA889EB-84E6-4871-A46E-AE0AAC68F2E6}">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
@@ -948,295 +952,295 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>8562</v>
+        <v>8545</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>8578</v>
+        <v>8562</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>8593</v>
+        <v>8578</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>8828</v>
+        <v>8593</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>8854</v>
+        <v>8828</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>9124</v>
+        <v>8854</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>9168</v>
+        <v>9124</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>9213</v>
+        <v>9168</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>10316</v>
+        <v>9213</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>10485</v>
+        <v>10316</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>10647</v>
+        <v>10485</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>10898</v>
+        <v>10647</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>12298</v>
+        <v>10898</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>12299</v>
+        <v>12298</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>12535</v>
+        <v>12299</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>12536</v>
+        <v>12535</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>12538</v>
+        <v>12536</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>14019</v>
+        <v>12538</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>17301</v>
+        <v>14019</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>17490</v>
+        <v>17301</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>18541</v>
+        <v>17490</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>22725</v>
+        <v>18541</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>27424</v>
+        <v>22725</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>27575</v>
+        <v>27424</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>27620</v>
+        <v>27575</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>100595</v>
+        <v>27620</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>100692</v>
+        <v>100595</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>101322</v>
+        <v>100692</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>103112</v>
+        <v>101322</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>103136</v>
+        <v>103112</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>104190</v>
+        <v>103136</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>107240</v>
+        <v>104190</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>107508</v>
+        <v>107240</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>108405</v>
+        <v>107508</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>108858</v>
+        <v>108405</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>109910</v>
+        <v>108858</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>109934</v>
+        <v>109910</v>
       </c>
       <c r="B74" t="s">
         <v>67</v>
@@ -1244,97 +1248,105 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>110226</v>
+        <v>109934</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>110936</v>
+        <v>110226</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>110938</v>
+        <v>110936</v>
       </c>
       <c r="B77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>110939</v>
+        <v>110938</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>111002</v>
+        <v>110939</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>111258</v>
+        <v>111002</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>118738</v>
+        <v>111258</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>129510</v>
+        <v>118738</v>
       </c>
       <c r="B82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>138174</v>
+        <v>129510</v>
       </c>
       <c r="B83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>171418</v>
+        <v>138174</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>174098</v>
+        <v>171418</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
+        <v>174098</v>
+      </c>
+      <c r="B86" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>176297</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>79</v>
       </c>
     </row>

--- a/file/seongdong-gu.xlsx
+++ b/file/seongdong-gu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059CFD51-3B9A-4BCD-B80F-38437310665E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F6D0C7-BDB0-4A9D-AEAD-ACB652CA3B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAC92FAD-1A61-48C3-B47D-B4D6FEA964EB}"/>
   </bookViews>
@@ -350,9 +350,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -390,7 +390,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -496,7 +496,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -638,7 +638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA889EB-84E6-4871-A46E-AE0AAC68F2E6}">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
@@ -832,7 +832,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="B23" t="s">
         <v>82</v>

--- a/file/seongdong-gu.xlsx
+++ b/file/seongdong-gu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F6D0C7-BDB0-4A9D-AEAD-ACB652CA3B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A79FFF-37A8-424B-8751-75D76F032D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAC92FAD-1A61-48C3-B47D-B4D6FEA964EB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t>현대</t>
   </si>
@@ -284,6 +284,10 @@
   </si>
   <si>
     <t>한진해모로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극동미라주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA889EB-84E6-4871-A46E-AE0AAC68F2E6}">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
@@ -912,343 +916,343 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>3532</v>
+        <v>3420</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>3530</v>
+        <v>3532</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>7993</v>
+        <v>3530</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>8103</v>
+        <v>7993</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>8104</v>
+        <v>8103</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>8545</v>
+        <v>8104</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>8562</v>
+        <v>8545</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>8578</v>
+        <v>8562</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>8593</v>
+        <v>8578</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>8828</v>
+        <v>8593</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>8854</v>
+        <v>8828</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>9124</v>
+        <v>8854</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>9168</v>
+        <v>9124</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>9213</v>
+        <v>9168</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>10316</v>
+        <v>9213</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>10485</v>
+        <v>10316</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>10647</v>
+        <v>10485</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>10898</v>
+        <v>10647</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>12298</v>
+        <v>10898</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>12299</v>
+        <v>12298</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>12535</v>
+        <v>12299</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>12536</v>
+        <v>12535</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>12538</v>
+        <v>12536</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>14019</v>
+        <v>12538</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>17301</v>
+        <v>14019</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>17490</v>
+        <v>17301</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>18541</v>
+        <v>17490</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>22725</v>
+        <v>18541</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>27424</v>
+        <v>22725</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>27575</v>
+        <v>27424</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>27620</v>
+        <v>27575</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>100595</v>
+        <v>27620</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>100692</v>
+        <v>100595</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>101322</v>
+        <v>100692</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>103112</v>
+        <v>101322</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>103136</v>
+        <v>103112</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>104190</v>
+        <v>103136</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>107240</v>
+        <v>104190</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>107508</v>
+        <v>107240</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>108405</v>
+        <v>107508</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>108858</v>
+        <v>108405</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>109910</v>
+        <v>108858</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>109934</v>
+        <v>109910</v>
       </c>
       <c r="B75" t="s">
         <v>67</v>
@@ -1256,97 +1260,105 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>110226</v>
+        <v>109934</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>110936</v>
+        <v>110226</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>110938</v>
+        <v>110936</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>110939</v>
+        <v>110938</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>111002</v>
+        <v>110939</v>
       </c>
       <c r="B80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>111258</v>
+        <v>111002</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>118738</v>
+        <v>111258</v>
       </c>
       <c r="B82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>129510</v>
+        <v>118738</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>138174</v>
+        <v>129510</v>
       </c>
       <c r="B84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>171418</v>
+        <v>138174</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>174098</v>
+        <v>171418</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
+        <v>174098</v>
+      </c>
+      <c r="B87" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>176297</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>79</v>
       </c>
     </row>

--- a/file/seongdong-gu.xlsx
+++ b/file/seongdong-gu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A79FFF-37A8-424B-8751-75D76F032D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D85F35-F390-452C-B8B5-A08F2EC7CE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAC92FAD-1A61-48C3-B47D-B4D6FEA964EB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>현대</t>
   </si>
@@ -288,6 +288,10 @@
   </si>
   <si>
     <t>극동미라주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청계벽산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +299,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -306,6 +310,13 @@
     <font>
       <sz val="8"/>
       <name val="G마켓 산스 Medium"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -332,8 +343,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -650,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA889EB-84E6-4871-A46E-AE0AAC68F2E6}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
@@ -818,449 +832,449 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>574</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
+        <v>573</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>838</v>
+        <v>563</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>877</v>
+        <v>838</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1173</v>
+        <v>877</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>2976</v>
+        <v>1178</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>3417</v>
+        <v>2976</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>3532</v>
+        <v>3420</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>3530</v>
+        <v>3532</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>7993</v>
+        <v>3530</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>8103</v>
+        <v>7993</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>8104</v>
+        <v>8103</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>8545</v>
+        <v>8104</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>8562</v>
+        <v>8545</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>8578</v>
+        <v>8562</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>8593</v>
+        <v>8578</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>8828</v>
+        <v>8593</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>8854</v>
+        <v>8828</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>9124</v>
+        <v>8854</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>9168</v>
+        <v>9124</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>9213</v>
+        <v>9168</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>10316</v>
+        <v>9213</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>10485</v>
+        <v>10316</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>10647</v>
+        <v>10485</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>10898</v>
+        <v>10647</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>12298</v>
+        <v>10898</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>12299</v>
+        <v>12298</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>12535</v>
+        <v>12299</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>12536</v>
+        <v>12535</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>12538</v>
+        <v>12536</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>14019</v>
+        <v>12538</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>17301</v>
+        <v>14019</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>17490</v>
+        <v>17301</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>18541</v>
+        <v>17490</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>22725</v>
+        <v>18541</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>27424</v>
+        <v>22725</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>27575</v>
+        <v>27424</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>27620</v>
+        <v>27575</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>100595</v>
+        <v>27620</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>100692</v>
+        <v>100595</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>101322</v>
+        <v>100692</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>103112</v>
+        <v>101322</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>103136</v>
+        <v>103112</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>104190</v>
+        <v>103136</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>107240</v>
+        <v>104190</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>107508</v>
+        <v>107240</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>108405</v>
+        <v>107508</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>108858</v>
+        <v>108405</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>109910</v>
+        <v>108858</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>109934</v>
+        <v>109910</v>
       </c>
       <c r="B76" t="s">
         <v>67</v>
@@ -1268,97 +1282,105 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>110226</v>
+        <v>109934</v>
       </c>
       <c r="B77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>110936</v>
+        <v>110226</v>
       </c>
       <c r="B78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>110938</v>
+        <v>110936</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>110939</v>
+        <v>110938</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>111002</v>
+        <v>110939</v>
       </c>
       <c r="B81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>111258</v>
+        <v>111002</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>118738</v>
+        <v>111258</v>
       </c>
       <c r="B83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>129510</v>
+        <v>118738</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>138174</v>
+        <v>129510</v>
       </c>
       <c r="B85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>171418</v>
+        <v>138174</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>174098</v>
+        <v>171418</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
+        <v>174098</v>
+      </c>
+      <c r="B88" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>176297</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>79</v>
       </c>
     </row>

--- a/file/seongdong-gu.xlsx
+++ b/file/seongdong-gu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D85F35-F390-452C-B8B5-A08F2EC7CE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD67BC9-3424-40ED-8415-0AEE481F02D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAC92FAD-1A61-48C3-B47D-B4D6FEA964EB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t>현대</t>
   </si>
@@ -292,6 +292,10 @@
   </si>
   <si>
     <t>청계벽산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA889EB-84E6-4871-A46E-AE0AAC68F2E6}">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
@@ -914,375 +918,375 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>2976</v>
+        <v>1286</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>3417</v>
+        <v>2976</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>3532</v>
+        <v>3420</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>3530</v>
+        <v>3532</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>7993</v>
+        <v>3530</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>8103</v>
+        <v>7993</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>8104</v>
+        <v>8103</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>8545</v>
+        <v>8104</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>8562</v>
+        <v>8545</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>8578</v>
+        <v>8562</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>8593</v>
+        <v>8578</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>8828</v>
+        <v>8593</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>8854</v>
+        <v>8828</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>9124</v>
+        <v>8854</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>9168</v>
+        <v>9124</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>9213</v>
+        <v>9168</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>10316</v>
+        <v>9213</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>10485</v>
+        <v>10316</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>10647</v>
+        <v>10485</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>10898</v>
+        <v>10647</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>12298</v>
+        <v>10898</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>12299</v>
+        <v>12298</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>12535</v>
+        <v>12299</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>12536</v>
+        <v>12535</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>12538</v>
+        <v>12536</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>14019</v>
+        <v>12538</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>17301</v>
+        <v>14019</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>17490</v>
+        <v>17301</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>18541</v>
+        <v>17490</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>22725</v>
+        <v>18541</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>27424</v>
+        <v>22725</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>27575</v>
+        <v>27424</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>27620</v>
+        <v>27575</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>100595</v>
+        <v>27620</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>100692</v>
+        <v>100595</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>101322</v>
+        <v>100692</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>103112</v>
+        <v>101322</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>103136</v>
+        <v>103112</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>104190</v>
+        <v>103136</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>107240</v>
+        <v>104190</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>107508</v>
+        <v>107240</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>108405</v>
+        <v>107508</v>
       </c>
       <c r="B74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>108858</v>
+        <v>108405</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>109910</v>
+        <v>108858</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>109934</v>
+        <v>109910</v>
       </c>
       <c r="B77" t="s">
         <v>67</v>
@@ -1290,97 +1294,105 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>110226</v>
+        <v>109934</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>110936</v>
+        <v>110226</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>110938</v>
+        <v>110936</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>110939</v>
+        <v>110938</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>111002</v>
+        <v>110939</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>111258</v>
+        <v>111002</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>118738</v>
+        <v>111258</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>129510</v>
+        <v>118738</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>138174</v>
+        <v>129510</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>171418</v>
+        <v>138174</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>174098</v>
+        <v>171418</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
+        <v>174098</v>
+      </c>
+      <c r="B89" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>176297</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>79</v>
       </c>
     </row>

--- a/file/seongdong-gu.xlsx
+++ b/file/seongdong-gu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD67BC9-3424-40ED-8415-0AEE481F02D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA72AA2E-3324-4D5A-A878-EB9030505B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAC92FAD-1A61-48C3-B47D-B4D6FEA964EB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DAC92FAD-1A61-48C3-B47D-B4D6FEA964EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
   <si>
     <t>현대</t>
   </si>
@@ -296,6 +296,14 @@
   </si>
   <si>
     <t>벽산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행당대림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행당한진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA889EB-84E6-4871-A46E-AE0AAC68F2E6}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
@@ -876,523 +884,539 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>877</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>950</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1173</v>
-      </c>
-      <c r="B27" t="s">
-        <v>22</v>
+        <v>878</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1175</v>
+        <v>877</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1286</v>
+        <v>1177</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>2976</v>
+        <v>1178</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>3417</v>
+        <v>1286</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>3418</v>
+        <v>2976</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>3420</v>
+        <v>3417</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>3532</v>
+        <v>3418</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>3530</v>
+        <v>3420</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>7993</v>
+        <v>3532</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>8103</v>
+        <v>3530</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>8104</v>
+        <v>7993</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>8545</v>
+        <v>8103</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>8562</v>
+        <v>8104</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>8578</v>
+        <v>8545</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>8593</v>
+        <v>8562</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>8828</v>
+        <v>8578</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>8854</v>
+        <v>8593</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>9124</v>
+        <v>8828</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>9168</v>
+        <v>8854</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>9213</v>
+        <v>9124</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>10316</v>
+        <v>9168</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>10485</v>
+        <v>9213</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>10647</v>
+        <v>10316</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>10898</v>
+        <v>10485</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>12298</v>
+        <v>10647</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>12299</v>
+        <v>10898</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>12535</v>
+        <v>12298</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>12536</v>
+        <v>12299</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>12538</v>
+        <v>12535</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>14019</v>
+        <v>12536</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>17301</v>
+        <v>12538</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>17490</v>
+        <v>14019</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>18541</v>
+        <v>17301</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>22725</v>
+        <v>17490</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>27424</v>
+        <v>18541</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>27575</v>
+        <v>22725</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>27620</v>
+        <v>27424</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>100595</v>
+        <v>27575</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>100692</v>
+        <v>27620</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>101322</v>
+        <v>100595</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>103112</v>
+        <v>100692</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>103136</v>
+        <v>101322</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>104190</v>
+        <v>103112</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>107240</v>
+        <v>103136</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>107508</v>
+        <v>104190</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>108405</v>
+        <v>107240</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>108858</v>
+        <v>107508</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>109910</v>
+        <v>108405</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>109934</v>
+        <v>108858</v>
       </c>
       <c r="B78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>110226</v>
+        <v>109910</v>
       </c>
       <c r="B79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>110936</v>
+        <v>109934</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>110938</v>
+        <v>110226</v>
       </c>
       <c r="B81" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>110939</v>
+        <v>110936</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>111002</v>
+        <v>110938</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>111258</v>
+        <v>110939</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>118738</v>
+        <v>111002</v>
       </c>
       <c r="B85" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>129510</v>
+        <v>111258</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>138174</v>
+        <v>118738</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>171418</v>
+        <v>129510</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>174098</v>
+        <v>138174</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
+        <v>171418</v>
+      </c>
+      <c r="B90" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>174098</v>
+      </c>
+      <c r="B91" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>176297</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B92" t="s">
         <v>79</v>
       </c>
     </row>

--- a/file/seongdong-gu.xlsx
+++ b/file/seongdong-gu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA72AA2E-3324-4D5A-A878-EB9030505B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA266C2-59F4-46DA-A9B0-4333E780880F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DAC92FAD-1A61-48C3-B47D-B4D6FEA964EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAC92FAD-1A61-48C3-B47D-B4D6FEA964EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
   <si>
     <t>현대</t>
   </si>
@@ -304,6 +304,10 @@
   </si>
   <si>
     <t>행당한진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥수삼성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA889EB-84E6-4871-A46E-AE0AAC68F2E6}">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
@@ -940,385 +944,385 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>1286</v>
-      </c>
-      <c r="B33" t="s">
-        <v>87</v>
+        <v>1179</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>2976</v>
+        <v>1286</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>3417</v>
+        <v>2976</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>3532</v>
+        <v>3420</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>3530</v>
+        <v>3532</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>7993</v>
+        <v>3530</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>8103</v>
+        <v>7993</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>8104</v>
+        <v>8103</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>8545</v>
+        <v>8104</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>8562</v>
+        <v>8545</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>8578</v>
+        <v>8562</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>8593</v>
+        <v>8578</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>8828</v>
+        <v>8593</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>8854</v>
+        <v>8828</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>9124</v>
+        <v>8854</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>9168</v>
+        <v>9124</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>9213</v>
+        <v>9168</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>10316</v>
+        <v>9213</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>10485</v>
+        <v>10316</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>10647</v>
+        <v>10485</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>10898</v>
+        <v>10647</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>12298</v>
+        <v>10898</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>12299</v>
+        <v>12298</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>12535</v>
+        <v>12299</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>12536</v>
+        <v>12535</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>12538</v>
+        <v>12536</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>14019</v>
+        <v>12538</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>17301</v>
+        <v>14019</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>17490</v>
+        <v>17301</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>18541</v>
+        <v>17490</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>22725</v>
+        <v>18541</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>27424</v>
+        <v>22725</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>27575</v>
+        <v>27424</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>27620</v>
+        <v>27575</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>100595</v>
+        <v>27620</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>100692</v>
+        <v>100595</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>101322</v>
+        <v>100692</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>103112</v>
+        <v>101322</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>103136</v>
+        <v>103112</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>104190</v>
+        <v>103136</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>107240</v>
+        <v>104190</v>
       </c>
       <c r="B75" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>107508</v>
+        <v>107240</v>
       </c>
       <c r="B76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>108405</v>
+        <v>107508</v>
       </c>
       <c r="B77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>108858</v>
+        <v>108405</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>109910</v>
+        <v>108858</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>109934</v>
+        <v>109910</v>
       </c>
       <c r="B80" t="s">
         <v>67</v>
@@ -1326,97 +1330,105 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>110226</v>
+        <v>109934</v>
       </c>
       <c r="B81" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>110936</v>
+        <v>110226</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>110938</v>
+        <v>110936</v>
       </c>
       <c r="B83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>110939</v>
+        <v>110938</v>
       </c>
       <c r="B84" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>111002</v>
+        <v>110939</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>111258</v>
+        <v>111002</v>
       </c>
       <c r="B86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>118738</v>
+        <v>111258</v>
       </c>
       <c r="B87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>129510</v>
+        <v>118738</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>138174</v>
+        <v>129510</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>171418</v>
+        <v>138174</v>
       </c>
       <c r="B90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>174098</v>
+        <v>171418</v>
       </c>
       <c r="B91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
+        <v>174098</v>
+      </c>
+      <c r="B92" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
         <v>176297</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>79</v>
       </c>
     </row>
